--- a/11/1/2/Número de viviendas y superficie 2008 a 2021 - Mensual.xlsx
+++ b/11/1/2/Número de viviendas y superficie 2008 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>Serie</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -875,7 +878,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4126,19 +4129,39 @@
         <v>167</v>
       </c>
       <c r="B163">
-        <v>908224</v>
+        <v>980835</v>
       </c>
       <c r="C163">
-        <v>9402</v>
+        <v>10191</v>
       </c>
       <c r="D163">
-        <v>735096</v>
+        <v>805553</v>
       </c>
       <c r="E163">
-        <v>114828</v>
+        <v>115488</v>
       </c>
       <c r="F163">
-        <v>58300</v>
+        <v>59794</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>168</v>
+      </c>
+      <c r="B164">
+        <v>1317319</v>
+      </c>
+      <c r="C164">
+        <v>12196</v>
+      </c>
+      <c r="D164">
+        <v>1033024</v>
+      </c>
+      <c r="E164">
+        <v>223527</v>
+      </c>
+      <c r="F164">
+        <v>60768</v>
       </c>
     </row>
   </sheetData>

--- a/11/1/2/Número de viviendas y superficie 2008 a 2021 - Mensual.xlsx
+++ b/11/1/2/Número de viviendas y superficie 2008 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>Serie</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -878,7 +881,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F164"/>
+  <dimension ref="A1:F165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4164,6 +4167,26 @@
         <v>60768</v>
       </c>
     </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>169</v>
+      </c>
+      <c r="B165">
+        <v>1352342</v>
+      </c>
+      <c r="C165">
+        <v>12815</v>
+      </c>
+      <c r="D165">
+        <v>1036296</v>
+      </c>
+      <c r="E165">
+        <v>276679</v>
+      </c>
+      <c r="F165">
+        <v>39367</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/11/1/2/Número de viviendas y superficie 2008 a 2021 - Mensual.xlsx
+++ b/11/1/2/Número de viviendas y superficie 2008 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <t>Serie</t>
   </si>
@@ -524,6 +524,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -881,7 +884,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:F166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4172,19 +4175,39 @@
         <v>169</v>
       </c>
       <c r="B165">
-        <v>1352342</v>
+        <v>1397647</v>
       </c>
       <c r="C165">
-        <v>12815</v>
+        <v>13237</v>
       </c>
       <c r="D165">
-        <v>1036296</v>
+        <v>1072995</v>
       </c>
       <c r="E165">
-        <v>276679</v>
+        <v>284904</v>
       </c>
       <c r="F165">
-        <v>39367</v>
+        <v>39748</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>170</v>
+      </c>
+      <c r="B166">
+        <v>750094</v>
+      </c>
+      <c r="C166">
+        <v>6565</v>
+      </c>
+      <c r="D166">
+        <v>562321</v>
+      </c>
+      <c r="E166">
+        <v>119524</v>
+      </c>
+      <c r="F166">
+        <v>68249</v>
       </c>
     </row>
   </sheetData>
